--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.81</v>
       </c>
       <c r="C2" t="n">
-        <v>30.76991554026849</v>
+        <v>30.76588808081168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9599155402684865</v>
+        <v>0.9558880808116861</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9214378444489403</v>
+        <v>0.9137220230378486</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>30.21</v>
       </c>
       <c r="C3" t="n">
-        <v>30.54361302905223</v>
+        <v>30.49290192637001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3336130290522306</v>
+        <v>0.2829019263700054</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1112976531534044</v>
+        <v>0.08003349994385998</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>30.48</v>
       </c>
       <c r="C4" t="n">
-        <v>31.757457665072</v>
+        <v>31.74044019394151</v>
       </c>
       <c r="D4" t="n">
-        <v>1.277457665072003</v>
+        <v>1.260440193941506</v>
       </c>
       <c r="E4" t="n">
-        <v>1.631898086051214</v>
+        <v>1.5887094825033</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>30.95</v>
       </c>
       <c r="C5" t="n">
-        <v>32.80272408718376</v>
+        <v>32.80034940766527</v>
       </c>
       <c r="D5" t="n">
-        <v>1.852724087183763</v>
+        <v>1.850349407665274</v>
       </c>
       <c r="E5" t="n">
-        <v>3.432586543230907</v>
+        <v>3.423792930447229</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>31.38</v>
       </c>
       <c r="C6" t="n">
-        <v>33.22089633759976</v>
+        <v>33.21555542498387</v>
       </c>
       <c r="D6" t="n">
-        <v>1.840896337599762</v>
+        <v>1.83555542498387</v>
       </c>
       <c r="E6" t="n">
-        <v>3.388899325788218</v>
+        <v>3.369263718187714</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>32.28</v>
       </c>
       <c r="C7" t="n">
-        <v>33.74780073467695</v>
+        <v>33.72395587741531</v>
       </c>
       <c r="D7" t="n">
-        <v>1.467800734676949</v>
+        <v>1.443955877415313</v>
       </c>
       <c r="E7" t="n">
-        <v>2.154438996718191</v>
+        <v>2.085008575922226</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>33.1</v>
       </c>
       <c r="C8" t="n">
-        <v>34.43657528398465</v>
+        <v>34.37808180018865</v>
       </c>
       <c r="D8" t="n">
-        <v>1.336575283984651</v>
+        <v>1.278081800188644</v>
       </c>
       <c r="E8" t="n">
-        <v>1.78643348975865</v>
+        <v>1.633493087973446</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>34.4</v>
       </c>
       <c r="C9" t="n">
-        <v>35.94713549679548</v>
+        <v>35.90406068413666</v>
       </c>
       <c r="D9" t="n">
-        <v>1.547135496795477</v>
+        <v>1.504060684136661</v>
       </c>
       <c r="E9" t="n">
-        <v>2.393628245444587</v>
+        <v>2.262198541565641</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>36.3</v>
       </c>
       <c r="C10" t="n">
-        <v>37.51966808349909</v>
+        <v>37.47519330171143</v>
       </c>
       <c r="D10" t="n">
-        <v>1.219668083499094</v>
+        <v>1.175193301711431</v>
       </c>
       <c r="E10" t="n">
-        <v>1.487590233906354</v>
+        <v>1.381079296387415</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>38.5</v>
       </c>
       <c r="C11" t="n">
-        <v>40.35842840720095</v>
+        <v>40.3543549343807</v>
       </c>
       <c r="D11" t="n">
-        <v>1.858428407200954</v>
+        <v>1.854354934380702</v>
       </c>
       <c r="E11" t="n">
-        <v>3.453756144691474</v>
+        <v>3.438632222662056</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>40.1</v>
       </c>
       <c r="C12" t="n">
-        <v>42.8313657649218</v>
+        <v>42.81145067613007</v>
       </c>
       <c r="D12" t="n">
-        <v>2.731365764921797</v>
+        <v>2.71145067613007</v>
       </c>
       <c r="E12" t="n">
-        <v>7.460358941786835</v>
+        <v>7.351964769086216</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>41.5</v>
       </c>
       <c r="C13" t="n">
-        <v>43.98715783898887</v>
+        <v>43.94813568007139</v>
       </c>
       <c r="D13" t="n">
-        <v>2.487157838988871</v>
+        <v>2.448135680071388</v>
       </c>
       <c r="E13" t="n">
-        <v>6.185954116043791</v>
+        <v>5.993368308038598</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>43.7</v>
       </c>
       <c r="C14" t="n">
-        <v>46.17134392668127</v>
+        <v>46.16299411190146</v>
       </c>
       <c r="D14" t="n">
-        <v>2.471343926681264</v>
+        <v>2.462994111901459</v>
       </c>
       <c r="E14" t="n">
-        <v>6.10754080394437</v>
+        <v>6.066339995261256</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>48.1</v>
       </c>
       <c r="C15" t="n">
-        <v>51.48326411832697</v>
+        <v>51.48594152483957</v>
       </c>
       <c r="D15" t="n">
-        <v>3.38326411832697</v>
+        <v>3.385941524839566</v>
       </c>
       <c r="E15" t="n">
-        <v>11.44647609435877</v>
+        <v>11.46460000963289</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>55.33584094901113</v>
+        <v>55.16481341084425</v>
       </c>
       <c r="D16" t="n">
-        <v>2.335840949011128</v>
+        <v>2.164813410844253</v>
       </c>
       <c r="E16" t="n">
-        <v>5.456152939077209</v>
+        <v>4.68641710377113</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>56.1</v>
       </c>
       <c r="C17" t="n">
-        <v>56.36501913898519</v>
+        <v>56.34687072834846</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2650191389851884</v>
+        <v>0.2468707283484619</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07023514402845059</v>
+        <v>0.06094515651530007</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>60</v>
       </c>
       <c r="C18" t="n">
-        <v>62.50949137110978</v>
+        <v>62.48550152208492</v>
       </c>
       <c r="D18" t="n">
-        <v>2.509491371109782</v>
+        <v>2.485501522084917</v>
       </c>
       <c r="E18" t="n">
-        <v>6.297546941674452</v>
+        <v>6.177717816286438</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>63.9</v>
       </c>
       <c r="C19" t="n">
-        <v>62.65207260290263</v>
+        <v>62.76829176905451</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.247927397097371</v>
+        <v>-1.131708230945492</v>
       </c>
       <c r="E19" t="n">
-        <v>1.557322788426219</v>
+        <v>1.280763519989774</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>70.59999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>72.30440451377802</v>
+        <v>72.44694930418223</v>
       </c>
       <c r="D20" t="n">
-        <v>1.70440451377803</v>
+        <v>1.846949304182232</v>
       </c>
       <c r="E20" t="n">
-        <v>2.904994746586923</v>
+        <v>3.41122173221923</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>80.90000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>83.65013039518624</v>
+        <v>83.66120564203668</v>
       </c>
       <c r="D21" t="n">
-        <v>2.750130395186233</v>
+        <v>2.761205642036671</v>
       </c>
       <c r="E21" t="n">
-        <v>7.563217190527184</v>
+        <v>7.624256597615146</v>
       </c>
     </row>
     <row r="22">
@@ -808,11 +808,11 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>33.08430528522526</v>
+        <v>32.82293600109862</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>75.81176626964614</v>
+        <v>74.29352838704671</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>3.790588313482307</v>
+        <v>3.714676419352335</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,370 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>29.81</v>
+        <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>30.76588808081168</v>
+        <v>36.79330043482069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9558880808116861</v>
+        <v>7.443300434820685</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9137220230378486</v>
+        <v>55.4027213630018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>30.21</v>
+        <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>30.49290192637001</v>
+        <v>36.6765849767194</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2829019263700054</v>
+        <v>7.306584976719396</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08003349994385998</v>
+        <v>53.38618402202157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>30.48</v>
+        <v>29.54</v>
       </c>
       <c r="C4" t="n">
-        <v>31.74044019394151</v>
+        <v>34.53205475671676</v>
       </c>
       <c r="D4" t="n">
-        <v>1.260440193941506</v>
+        <v>4.992054756716762</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5887094825033</v>
+        <v>24.92061069405845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>30.95</v>
+        <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>32.80034940766527</v>
+        <v>29.01189011952815</v>
       </c>
       <c r="D5" t="n">
-        <v>1.850349407665274</v>
+        <v>-0.5381098804718505</v>
       </c>
       <c r="E5" t="n">
-        <v>3.423792930447229</v>
+        <v>0.2895622434614292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>31.38</v>
+        <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>33.21555542498387</v>
+        <v>33.45246665400992</v>
       </c>
       <c r="D6" t="n">
-        <v>1.83555542498387</v>
+        <v>3.702466654009918</v>
       </c>
       <c r="E6" t="n">
-        <v>3.369263718187714</v>
+        <v>13.70825932405539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>32.28</v>
+        <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>33.72395587741531</v>
+        <v>32.27679965324672</v>
       </c>
       <c r="D7" t="n">
-        <v>1.443955877415313</v>
+        <v>2.43679965324672</v>
       </c>
       <c r="E7" t="n">
-        <v>2.085008575922226</v>
+        <v>5.937992550063333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>33.1</v>
+        <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>34.37808180018865</v>
+        <v>32.16766956897059</v>
       </c>
       <c r="D8" t="n">
-        <v>1.278081800188644</v>
+        <v>2.357669568970589</v>
       </c>
       <c r="E8" t="n">
-        <v>1.633493087973446</v>
+        <v>5.558605796449965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>34.4</v>
+        <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>35.90406068413666</v>
+        <v>34.16205207821675</v>
       </c>
       <c r="D9" t="n">
-        <v>1.504060684136661</v>
+        <v>4.242052078216751</v>
       </c>
       <c r="E9" t="n">
-        <v>2.262198541565641</v>
+        <v>17.99500583430306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>36.3</v>
+        <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>37.47519330171143</v>
+        <v>32.27409085481094</v>
       </c>
       <c r="D10" t="n">
-        <v>1.175193301711431</v>
+        <v>2.294090854810936</v>
       </c>
       <c r="E10" t="n">
-        <v>1.381079296387415</v>
+        <v>5.262852850127169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>38.5</v>
+        <v>30.04</v>
       </c>
       <c r="C11" t="n">
-        <v>40.3543549343807</v>
+        <v>30.83162290287955</v>
       </c>
       <c r="D11" t="n">
-        <v>1.854354934380702</v>
+        <v>0.7916229028795492</v>
       </c>
       <c r="E11" t="n">
-        <v>3.438632222662056</v>
+        <v>0.6266668203634441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>40.1</v>
+        <v>30.21</v>
       </c>
       <c r="C12" t="n">
-        <v>42.81145067613007</v>
+        <v>31.25309074916291</v>
       </c>
       <c r="D12" t="n">
-        <v>2.71145067613007</v>
+        <v>1.043090749162907</v>
       </c>
       <c r="E12" t="n">
-        <v>7.351964769086216</v>
+        <v>1.088038310989235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>41.5</v>
+        <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>43.94813568007139</v>
+        <v>27.59798741008574</v>
       </c>
       <c r="D13" t="n">
-        <v>2.448135680071388</v>
+        <v>-2.622012589914259</v>
       </c>
       <c r="E13" t="n">
-        <v>5.993368308038598</v>
+        <v>6.874950021668883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>43.7</v>
+        <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>46.16299411190146</v>
+        <v>30.43984304411534</v>
       </c>
       <c r="D14" t="n">
-        <v>2.462994111901459</v>
+        <v>0.05984304411533614</v>
       </c>
       <c r="E14" t="n">
-        <v>6.066339995261256</v>
+        <v>0.003581189928990067</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B15" t="n">
-        <v>48.1</v>
+        <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>51.48594152483957</v>
+        <v>28.12993846249344</v>
       </c>
       <c r="D15" t="n">
-        <v>3.385941524839566</v>
+        <v>-2.310061537506563</v>
       </c>
       <c r="E15" t="n">
-        <v>11.46460000963289</v>
+        <v>5.336384307067186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B16" t="n">
-        <v>53</v>
+        <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>55.16481341084425</v>
+        <v>28.7615179505928</v>
       </c>
       <c r="D16" t="n">
-        <v>2.164813410844253</v>
+        <v>-1.718482049407204</v>
       </c>
       <c r="E16" t="n">
-        <v>4.68641710377113</v>
+        <v>2.953180554134782</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B17" t="n">
-        <v>56.1</v>
+        <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>56.34687072834846</v>
+        <v>31.96683372517736</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2468707283484619</v>
+        <v>1.276833725177362</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06094515651530007</v>
+        <v>1.630304361750298</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>62.48550152208492</v>
+        <v>28.89633741401596</v>
       </c>
       <c r="D18" t="n">
-        <v>2.485501522084917</v>
+        <v>-1.85366258598404</v>
       </c>
       <c r="E18" t="n">
-        <v>6.177717816286438</v>
+        <v>3.436064982677038</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B19" t="n">
-        <v>63.9</v>
+        <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>62.76829176905451</v>
+        <v>31.64726333453534</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.131708230945492</v>
+        <v>0.707263334535341</v>
       </c>
       <c r="E19" t="n">
-        <v>1.280763519989774</v>
+        <v>0.5002214243780496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
-        <v>70.59999999999999</v>
+        <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>72.44694930418223</v>
+        <v>28.07391404560158</v>
       </c>
       <c r="D20" t="n">
-        <v>1.846949304182232</v>
+        <v>-2.876085954398416</v>
       </c>
       <c r="E20" t="n">
-        <v>3.41122173221923</v>
+        <v>8.271870417087849</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C21" t="n">
+        <v>27.46704788364709</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.552952116352909</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.62346874109661</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27.141917441412</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3.978082558588</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15.82514084294204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>28.7303701800381</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2.549629819961897</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.500612218838935</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27.63016407344934</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.749835926550656</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14.06126947605001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C25" t="n">
+        <v>28.17998650932552</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.400013490674478</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.56009173676845</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31.65</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.49945076077237</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-7.150549239227633</v>
+      </c>
+      <c r="E26" t="n">
+        <v>51.13035442261888</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C27" t="n">
+        <v>27.1915128034533</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4.688487196546703</v>
+      </c>
+      <c r="E27" t="n">
+        <v>21.98191219218236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.13421231998549</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.1457876800145073</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.02125404764401236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>25.31866458563105</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-7.131335414368952</v>
+      </c>
+      <c r="E29" t="n">
+        <v>50.85594479223278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32.40734915234856</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.4426508476514428</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1959397729265408</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23.76015477612052</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-9.139845223879483</v>
+      </c>
+      <c r="E31" t="n">
+        <v>83.5367707164726</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>24.67895038616307</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-8.421049613836935</v>
+      </c>
+      <c r="E32" t="n">
+        <v>70.91407659870319</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>27.0827726499518</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.317227350048203</v>
+      </c>
+      <c r="E33" t="n">
+        <v>39.90736139219704</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>27.57258124422464</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-6.127418755775363</v>
+      </c>
+      <c r="E34" t="n">
+        <v>37.54526060862769</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>30.97513026339556</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3.124869736604442</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.764810870746313</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27.5670087480477</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-6.832991251952297</v>
+      </c>
+      <c r="E36" t="n">
+        <v>46.68976944925662</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C37" t="n">
+        <v>33.06607191964125</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1.833928080358746</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.363292203928314</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>29.44617741021817</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-5.853822589781824</v>
+      </c>
+      <c r="E38" t="n">
+        <v>34.26723891263998</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>29.79700631108982</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-5.902993688910179</v>
+      </c>
+      <c r="E39" t="n">
+        <v>34.8453344913134</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>35.19730863837891</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1.102691361621083</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.215928238993759</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>32.40779598973965</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.39220401026035</v>
+      </c>
+      <c r="E41" t="n">
+        <v>19.2914560677471</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>33.12060913498516</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-4.179390865014838</v>
+      </c>
+      <c r="E42" t="n">
+        <v>17.46730800256948</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="C43" t="n">
+        <v>36.48030584783315</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1.419694152166848</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.015531485696745</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>35.49244126685663</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3.00755873314337</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9.04540953330695</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>34.13398356059652</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-4.766016439403479</v>
+      </c>
+      <c r="E45" t="n">
+        <v>22.71491270066422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C46" t="n">
+        <v>34.43188973070493</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4.968110269295067</v>
+      </c>
+      <c r="E46" t="n">
+        <v>24.68211964787511</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C47" t="n">
+        <v>32.68545759855736</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-7.214542401442635</v>
+      </c>
+      <c r="E47" t="n">
+        <v>52.04962206221366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>23.6980624433846</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-16.4019375566154</v>
+      </c>
+      <c r="E48" t="n">
+        <v>269.0235556111107</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C49" t="n">
+        <v>31.48171365610152</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-9.118286343898482</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.14314584932555</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="C50" t="n">
+        <v>28.37737127633371</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-12.52262872366629</v>
+      </c>
+      <c r="E50" t="n">
+        <v>156.8162301507919</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B21" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>83.66120564203668</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.761205642036671</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.624256597615146</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B51" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25.47354516197505</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-15.72645483802496</v>
+      </c>
+      <c r="E51" t="n">
+        <v>247.3213817724386</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>32.82293600109862</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>74.29352838704671</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>-148.4277281399375</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>1663.559561677507</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="n">
-        <v>3.714676419352335</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>33.27119123355015</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>36.79330043482069</v>
+        <v>28.88047081994445</v>
       </c>
       <c r="D2" t="n">
-        <v>7.443300434820685</v>
+        <v>-0.4695291800555488</v>
       </c>
       <c r="E2" t="n">
-        <v>55.4027213630018</v>
+        <v>0.220457650923636</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>36.6765849767194</v>
+        <v>28.79754100912948</v>
       </c>
       <c r="D3" t="n">
-        <v>7.306584976719396</v>
+        <v>-0.5724589908705227</v>
       </c>
       <c r="E3" t="n">
-        <v>53.38618402202157</v>
+        <v>0.3277092962284971</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.54</v>
       </c>
       <c r="C4" t="n">
-        <v>34.53205475671676</v>
+        <v>28.72393905747945</v>
       </c>
       <c r="D4" t="n">
-        <v>4.992054756716762</v>
+        <v>-0.8160609425205472</v>
       </c>
       <c r="E4" t="n">
-        <v>24.92061069405845</v>
+        <v>0.6659554619075237</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>29.01189011952815</v>
+        <v>29.94445591304089</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5381098804718505</v>
+        <v>0.3944559130408862</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2895622434614292</v>
+        <v>0.1555954673329192</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>33.45246665400992</v>
+        <v>29.61782930945843</v>
       </c>
       <c r="D6" t="n">
-        <v>3.702466654009918</v>
+        <v>-0.1321706905415745</v>
       </c>
       <c r="E6" t="n">
-        <v>13.70825932405539</v>
+        <v>0.01746909143823665</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>32.27679965324672</v>
+        <v>30.54245861807876</v>
       </c>
       <c r="D7" t="n">
-        <v>2.43679965324672</v>
+        <v>0.702458618078758</v>
       </c>
       <c r="E7" t="n">
-        <v>5.937992550063333</v>
+        <v>0.4934481101131183</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>32.16766956897059</v>
+        <v>30.40697447332623</v>
       </c>
       <c r="D8" t="n">
-        <v>2.357669568970589</v>
+        <v>0.5969744733262274</v>
       </c>
       <c r="E8" t="n">
-        <v>5.558605796449965</v>
+        <v>0.3563785218031266</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>34.16205207821675</v>
+        <v>30.21982061576142</v>
       </c>
       <c r="D9" t="n">
-        <v>4.242052078216751</v>
+        <v>0.2998206157614156</v>
       </c>
       <c r="E9" t="n">
-        <v>17.99500583430306</v>
+        <v>0.08989240163555441</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>32.27409085481094</v>
+        <v>29.49073496471589</v>
       </c>
       <c r="D10" t="n">
-        <v>2.294090854810936</v>
+        <v>-0.489265035284113</v>
       </c>
       <c r="E10" t="n">
-        <v>5.262852850127169</v>
+        <v>0.2393802747515644</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.04</v>
       </c>
       <c r="C11" t="n">
-        <v>30.83162290287955</v>
+        <v>29.76432767218155</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7916229028795492</v>
+        <v>-0.2756723278184516</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6266668203634441</v>
+        <v>0.07599523232484386</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.21</v>
       </c>
       <c r="C12" t="n">
-        <v>31.25309074916291</v>
+        <v>29.2289763240952</v>
       </c>
       <c r="D12" t="n">
-        <v>1.043090749162907</v>
+        <v>-0.981023675904801</v>
       </c>
       <c r="E12" t="n">
-        <v>1.088038310989235</v>
+        <v>0.962407452685768</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>27.59798741008574</v>
+        <v>29.64752027789943</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.622012589914259</v>
+        <v>-0.5724797221005709</v>
       </c>
       <c r="E13" t="n">
-        <v>6.874950021668883</v>
+        <v>0.3277330322163468</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>30.43984304411534</v>
+        <v>29.41012243268786</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05984304411533614</v>
+        <v>-0.9698775673121389</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003581189928990067</v>
+        <v>0.9406624955753126</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>28.12993846249344</v>
+        <v>30.14218121153088</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.310061537506563</v>
+        <v>-0.2978187884691224</v>
       </c>
       <c r="E15" t="n">
-        <v>5.336384307067186</v>
+        <v>0.08869603076521584</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7615179505928</v>
+        <v>30.17853079185805</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.718482049407204</v>
+        <v>-0.3014692081419525</v>
       </c>
       <c r="E16" t="n">
-        <v>2.953180554134782</v>
+        <v>0.09088368345773591</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>31.96683372517736</v>
+        <v>30.47421113686185</v>
       </c>
       <c r="D17" t="n">
-        <v>1.276833725177362</v>
+        <v>-0.2157888631381546</v>
       </c>
       <c r="E17" t="n">
-        <v>1.630304361750298</v>
+        <v>0.04656483345445721</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>28.89633741401596</v>
+        <v>30.0327836856211</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.85366258598404</v>
+        <v>-0.7172163143789021</v>
       </c>
       <c r="E18" t="n">
-        <v>3.436064982677038</v>
+        <v>0.5143992416112562</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>31.64726333453534</v>
+        <v>30.48739069386338</v>
       </c>
       <c r="D19" t="n">
-        <v>0.707263334535341</v>
+        <v>-0.4526093061366225</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5002214243780496</v>
+        <v>0.2048551840014749</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>28.07391404560158</v>
+        <v>30.80707348865126</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.876085954398416</v>
+        <v>-0.1429265113487403</v>
       </c>
       <c r="E20" t="n">
-        <v>8.271870417087849</v>
+        <v>0.0204279876463216</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>27.46704788364709</v>
+        <v>31.47541242433202</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.552952116352909</v>
+        <v>0.4554124243320246</v>
       </c>
       <c r="E21" t="n">
-        <v>12.62346874109661</v>
+        <v>0.207400476235972</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>27.141917441412</v>
+        <v>31.90392191954129</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.978082558588</v>
+        <v>0.7839219195412852</v>
       </c>
       <c r="E22" t="n">
-        <v>15.82514084294204</v>
+        <v>0.6145335759372932</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>28.7303701800381</v>
+        <v>32.07101273992203</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.549629819961897</v>
+        <v>0.7910127399220315</v>
       </c>
       <c r="E23" t="n">
-        <v>6.500612218838935</v>
+        <v>0.6257011547189594</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>27.63016407344934</v>
+        <v>31.91345175328856</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.749835926550656</v>
+        <v>0.5334517532885563</v>
       </c>
       <c r="E24" t="n">
-        <v>14.06126947605001</v>
+        <v>0.2845707730866348</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>28.17998650932552</v>
+        <v>32.31898828666998</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.400013490674478</v>
+        <v>0.7389882866699793</v>
       </c>
       <c r="E25" t="n">
-        <v>11.56009173676845</v>
+        <v>0.5461036878354315</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.65</v>
       </c>
       <c r="C26" t="n">
-        <v>24.49945076077237</v>
+        <v>32.11056598256215</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.150549239227633</v>
+        <v>0.4605659825621515</v>
       </c>
       <c r="E26" t="n">
-        <v>51.13035442261888</v>
+        <v>0.2121210242934401</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>27.1915128034533</v>
+        <v>32.74997155045387</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.688487196546703</v>
+        <v>0.8699715504538723</v>
       </c>
       <c r="E27" t="n">
-        <v>21.98191219218236</v>
+        <v>0.7568504985991145</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>32.13421231998549</v>
+        <v>32.50279706675092</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1457876800145073</v>
+        <v>0.222797066750914</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02125404764401236</v>
+        <v>0.04963853295281125</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>25.31866458563105</v>
+        <v>32.61164882504537</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.131335414368952</v>
+        <v>0.1616488250453685</v>
       </c>
       <c r="E29" t="n">
-        <v>50.85594479223278</v>
+        <v>0.02613034263854815</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.85</v>
       </c>
       <c r="C30" t="n">
-        <v>32.40734915234856</v>
+        <v>32.87701108739923</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.4426508476514428</v>
+        <v>0.02701108739923086</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1959397729265408</v>
+        <v>0.0007295988424888881</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.9</v>
       </c>
       <c r="C31" t="n">
-        <v>23.76015477612052</v>
+        <v>33.00066775366493</v>
       </c>
       <c r="D31" t="n">
-        <v>-9.139845223879483</v>
+        <v>0.1006677536649292</v>
       </c>
       <c r="E31" t="n">
-        <v>83.5367707164726</v>
+        <v>0.01013399662794287</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.1</v>
       </c>
       <c r="C32" t="n">
-        <v>24.67895038616307</v>
+        <v>32.97099385167881</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.421049613836935</v>
+        <v>-0.1290061483211886</v>
       </c>
       <c r="E32" t="n">
-        <v>70.91407659870319</v>
+        <v>0.01664258630466852</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.4</v>
       </c>
       <c r="C33" t="n">
-        <v>27.0827726499518</v>
+        <v>33.9102622668428</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.317227350048203</v>
+        <v>0.5102622668428012</v>
       </c>
       <c r="E33" t="n">
-        <v>39.90736139219704</v>
+        <v>0.2603675809635541</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>27.57258124422464</v>
+        <v>33.79824511495674</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.127418755775363</v>
+        <v>0.09824511495673249</v>
       </c>
       <c r="E34" t="n">
-        <v>37.54526060862769</v>
+        <v>0.009652102612861582</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.1</v>
       </c>
       <c r="C35" t="n">
-        <v>30.97513026339556</v>
+        <v>33.92622822892227</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.124869736604442</v>
+        <v>-0.1737717710777318</v>
       </c>
       <c r="E35" t="n">
-        <v>9.764810870746313</v>
+        <v>0.03019662842349162</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>27.5670087480477</v>
+        <v>34.03392978109852</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.832991251952297</v>
+        <v>-0.3660702189014771</v>
       </c>
       <c r="E36" t="n">
-        <v>46.68976944925662</v>
+        <v>0.1340074051665753</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.9</v>
       </c>
       <c r="C37" t="n">
-        <v>33.06607191964125</v>
+        <v>34.58591765730413</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.833928080358746</v>
+        <v>-0.314082342695869</v>
       </c>
       <c r="E37" t="n">
-        <v>3.363292203928314</v>
+        <v>0.09864771799332529</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>29.44617741021817</v>
+        <v>35.70262508082213</v>
       </c>
       <c r="D38" t="n">
-        <v>-5.853822589781824</v>
+        <v>0.4026250808221334</v>
       </c>
       <c r="E38" t="n">
-        <v>34.26723891263998</v>
+        <v>0.1621069557070295</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>29.79700631108982</v>
+        <v>36.10905442207207</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.902993688910179</v>
+        <v>0.4090544220720673</v>
       </c>
       <c r="E39" t="n">
-        <v>34.8453344913134</v>
+        <v>0.167325520216713</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>35.19730863837891</v>
+        <v>36.26659397241595</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.102691361621083</v>
+        <v>-0.03340602758404998</v>
       </c>
       <c r="E40" t="n">
-        <v>1.215928238993759</v>
+        <v>0.001115962678946308</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>32.40779598973965</v>
+        <v>36.88279370718733</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.39220401026035</v>
+        <v>0.08279370718733503</v>
       </c>
       <c r="E41" t="n">
-        <v>19.2914560677471</v>
+        <v>0.006854797949822172</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>33.12060913498516</v>
+        <v>36.91183076134275</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.179390865014838</v>
+        <v>-0.3881692386572482</v>
       </c>
       <c r="E42" t="n">
-        <v>17.46730800256948</v>
+        <v>0.1506753578397477</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>36.48030584783315</v>
+        <v>37.88692681021995</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.419694152166848</v>
+        <v>-0.01307318978004446</v>
       </c>
       <c r="E43" t="n">
-        <v>2.015531485696745</v>
+        <v>0.0001709082910250589</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49244126685663</v>
+        <v>38.50346492903321</v>
       </c>
       <c r="D44" t="n">
-        <v>-3.00755873314337</v>
+        <v>0.003464929033214048</v>
       </c>
       <c r="E44" t="n">
-        <v>9.04540953330695</v>
+        <v>1.200573320520964e-05</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.9</v>
       </c>
       <c r="C45" t="n">
-        <v>34.13398356059652</v>
+        <v>38.8761424283309</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.766016439403479</v>
+        <v>-0.02385757166909741</v>
       </c>
       <c r="E45" t="n">
-        <v>22.71491270066422</v>
+        <v>0.0005691837259461194</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.4</v>
       </c>
       <c r="C46" t="n">
-        <v>34.43188973070493</v>
+        <v>39.2557687270679</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.968110269295067</v>
+        <v>-0.1442312729321031</v>
       </c>
       <c r="E46" t="n">
-        <v>24.68211964787511</v>
+        <v>0.02080266009161483</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.9</v>
       </c>
       <c r="C47" t="n">
-        <v>32.68545759855736</v>
+        <v>39.56415861988053</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.214542401442635</v>
+        <v>-0.3358413801194686</v>
       </c>
       <c r="E47" t="n">
-        <v>52.04962206221366</v>
+        <v>0.1127894326005494</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.1</v>
       </c>
       <c r="C48" t="n">
-        <v>23.6980624433846</v>
+        <v>39.79025351510796</v>
       </c>
       <c r="D48" t="n">
-        <v>-16.4019375566154</v>
+        <v>-0.3097464848920453</v>
       </c>
       <c r="E48" t="n">
-        <v>269.0235556111107</v>
+        <v>0.09594288490297802</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.6</v>
       </c>
       <c r="C49" t="n">
-        <v>31.48171365610152</v>
+        <v>40.01247792801502</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.118286343898482</v>
+        <v>-0.5875220719849779</v>
       </c>
       <c r="E49" t="n">
-        <v>83.14314584932555</v>
+        <v>0.3451821850695215</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.9</v>
       </c>
       <c r="C50" t="n">
-        <v>28.37737127633371</v>
+        <v>40.31626741864778</v>
       </c>
       <c r="D50" t="n">
-        <v>-12.52262872366629</v>
+        <v>-0.5837325813522227</v>
       </c>
       <c r="E50" t="n">
-        <v>156.8162301507919</v>
+        <v>0.3407437265321293</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.2</v>
       </c>
       <c r="C51" t="n">
-        <v>25.47354516197505</v>
+        <v>41.48393709049734</v>
       </c>
       <c r="D51" t="n">
-        <v>-15.72645483802496</v>
+        <v>0.2839370904973393</v>
       </c>
       <c r="E51" t="n">
-        <v>247.3213817724386</v>
+        <v>0.08062027136009424</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-148.4277281399375</v>
+        <v>-1.879335802740034</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>1663.559561677507</v>
+        <v>11.20725098580535</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>33.27119123355015</v>
+        <v>0.2241450197161069</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>28.88047081994445</v>
+        <v>28.9427087348223</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4695291800555488</v>
+        <v>-0.4072912651776974</v>
       </c>
       <c r="E2" t="n">
-        <v>0.220457650923636</v>
+        <v>0.1658861746900494</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>28.79754100912948</v>
+        <v>28.89300836082998</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5724589908705227</v>
+        <v>-0.4769916391700164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3277092962284971</v>
+        <v>0.2275210238380991</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.54</v>
       </c>
       <c r="C4" t="n">
-        <v>28.72393905747945</v>
+        <v>28.34087207123419</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.8160609425205472</v>
+        <v>-1.199127928765805</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6659554619075237</v>
+        <v>1.437907789546168</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>29.94445591304089</v>
+        <v>28.11794112972044</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3944559130408862</v>
+        <v>-1.432058870279565</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1555954673329192</v>
+        <v>2.050792607946385</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>29.61782930945843</v>
+        <v>28.95533524248057</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1321706905415745</v>
+        <v>-0.7946647575194277</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01746909143823665</v>
+        <v>0.6314920768434108</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54245861807876</v>
+        <v>29.87504235166918</v>
       </c>
       <c r="D7" t="n">
-        <v>0.702458618078758</v>
+        <v>0.03504235166918335</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4934481101131183</v>
+        <v>0.001227966410506717</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>30.40697447332623</v>
+        <v>29.87150022226293</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5969744733262274</v>
+        <v>0.06150022226293217</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3563785218031266</v>
+        <v>0.003782277338390058</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>30.21982061576142</v>
+        <v>30.37454661334539</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2998206157614156</v>
+        <v>0.4545466133453928</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08989240163555441</v>
+        <v>0.206612623703766</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>29.49073496471589</v>
+        <v>29.79250161637757</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.489265035284113</v>
+        <v>-0.1874983836224295</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2393802747515644</v>
+        <v>0.03515564386102375</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.04</v>
       </c>
       <c r="C11" t="n">
-        <v>29.76432767218155</v>
+        <v>29.88042269822524</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2756723278184516</v>
+        <v>-0.1595773017747568</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07599523232484386</v>
+        <v>0.0254649152417118</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.21</v>
       </c>
       <c r="C12" t="n">
-        <v>29.2289763240952</v>
+        <v>29.74073590070473</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.981023675904801</v>
+        <v>-0.4692640992952732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.962407452685768</v>
+        <v>0.2202087948874041</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>29.64752027789943</v>
+        <v>29.51018045830837</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5724797221005709</v>
+        <v>-0.7098195416916333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3277330322163468</v>
+        <v>0.5038437817673204</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>29.41012243268786</v>
+        <v>30.18489927416362</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.9698775673121389</v>
+        <v>-0.1951007258363759</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9406624955753126</v>
+        <v>0.03806429322188073</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>30.14218121153088</v>
+        <v>30.34010875336671</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2978187884691224</v>
+        <v>-0.09989124663329463</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08869603076521584</v>
+        <v>0.009978261153953696</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>30.17853079185805</v>
+        <v>30.37038251337001</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3014692081419525</v>
+        <v>-0.1096174866299897</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09088368345773591</v>
+        <v>0.01201599337507597</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>30.47421113686185</v>
+        <v>31.17885640097398</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2157888631381546</v>
+        <v>0.4888564009739795</v>
       </c>
       <c r="E17" t="n">
-        <v>0.04656483345445721</v>
+        <v>0.2389805807732323</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>30.0327836856211</v>
+        <v>30.69160758968766</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.7172163143789021</v>
+        <v>-0.05839241031233655</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5143992416112562</v>
+        <v>0.003409673582084268</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>30.48739069386338</v>
+        <v>31.64098400633451</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4526093061366225</v>
+        <v>0.7009840063345081</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2048551840014749</v>
+        <v>0.4913785771367777</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>30.80707348865126</v>
+        <v>31.06001523706478</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1429265113487403</v>
+        <v>0.1100152370647827</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0204279876463216</v>
+        <v>0.01210335238642033</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>31.47541242433202</v>
+        <v>31.60349429203311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4554124243320246</v>
+        <v>0.5834942920331088</v>
       </c>
       <c r="E21" t="n">
-        <v>0.207400476235972</v>
+        <v>0.3404655888352188</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>31.90392191954129</v>
+        <v>31.80707194905486</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7839219195412852</v>
+        <v>0.6870719490548609</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6145335759372932</v>
+        <v>0.4720678631780454</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.07101273992203</v>
+        <v>32.37996397760462</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7910127399220315</v>
+        <v>1.099963977604624</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6257011547189594</v>
+        <v>1.209920752027785</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>31.91345175328856</v>
+        <v>31.77483967964639</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5334517532885563</v>
+        <v>0.3948396796463882</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2845707730866348</v>
+        <v>0.1558983726232625</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>32.31898828666998</v>
+        <v>32.22661443166132</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7389882866699793</v>
+        <v>0.6466144316613267</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5461036878354315</v>
+        <v>0.4181102232327005</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.65</v>
       </c>
       <c r="C26" t="n">
-        <v>32.11056598256215</v>
+        <v>31.71339970430864</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4605659825621515</v>
+        <v>0.06339970430864383</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2121210242934401</v>
+        <v>0.004019522506423472</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>32.74997155045387</v>
+        <v>32.73902469433484</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8699715504538723</v>
+        <v>0.8590246943348454</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7568504985991145</v>
+        <v>0.7379234254770746</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>32.50279706675092</v>
+        <v>32.74689348988056</v>
       </c>
       <c r="D28" t="n">
-        <v>0.222797066750914</v>
+        <v>0.4668934898805617</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04963853295281125</v>
+        <v>0.2179895308928501</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>32.61164882504537</v>
+        <v>32.23632170441146</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1616488250453685</v>
+        <v>-0.2136782955885437</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02613034263854815</v>
+        <v>0.04565841400562504</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.85</v>
       </c>
       <c r="C30" t="n">
-        <v>32.87701108739923</v>
+        <v>33.77646451688584</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02701108739923086</v>
+        <v>0.9264645168858365</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0007295988424888881</v>
+        <v>0.8583365010485065</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.9</v>
       </c>
       <c r="C31" t="n">
-        <v>33.00066775366493</v>
+        <v>32.54831745890368</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1006677536649292</v>
+        <v>-0.3516825410963236</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01013399662794287</v>
+        <v>0.1236806097119673</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.1</v>
       </c>
       <c r="C32" t="n">
-        <v>32.97099385167881</v>
+        <v>32.87716289024391</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1290061483211886</v>
+        <v>-0.2228371097560924</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01664258630466852</v>
+        <v>0.04965637748444877</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.4</v>
       </c>
       <c r="C33" t="n">
-        <v>33.9102622668428</v>
+        <v>33.54154534612043</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5102622668428012</v>
+        <v>0.1415453461204308</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2603675809635541</v>
+        <v>0.02003508500835255</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>33.79824511495674</v>
+        <v>33.84191268828056</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09824511495673249</v>
+        <v>0.1419126882805557</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009652102612861582</v>
+        <v>0.02013921109501417</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.1</v>
       </c>
       <c r="C35" t="n">
-        <v>33.92622822892227</v>
+        <v>34.52528172742192</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1737717710777318</v>
+        <v>0.4252817274219183</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03019662842349162</v>
+        <v>0.1808645476789708</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.03392978109852</v>
+        <v>34.43357021161053</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3660702189014771</v>
+        <v>0.03357021161053098</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1340074051665753</v>
+        <v>0.001126959107575829</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.9</v>
       </c>
       <c r="C37" t="n">
-        <v>34.58591765730413</v>
+        <v>35.11404979800094</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.314082342695869</v>
+        <v>0.2140497980009428</v>
       </c>
       <c r="E37" t="n">
-        <v>0.09864771799332529</v>
+        <v>0.04581731602424442</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.70262508082213</v>
+        <v>35.12644181550765</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4026250808221334</v>
+        <v>-0.1735581844923431</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1621069557070295</v>
+        <v>0.03012244340427819</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>36.10905442207207</v>
+        <v>35.48220943241199</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4090544220720673</v>
+        <v>-0.2177905675880112</v>
       </c>
       <c r="E39" t="n">
-        <v>0.167325520216713</v>
+        <v>0.04743273133030807</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>36.26659397241595</v>
+        <v>35.72761366455542</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03340602758404998</v>
+        <v>-0.5723863354445768</v>
       </c>
       <c r="E40" t="n">
-        <v>0.001115962678946308</v>
+        <v>0.3276261170036717</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>36.88279370718733</v>
+        <v>36.10607099140456</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08279370718733503</v>
+        <v>-0.6939290085954397</v>
       </c>
       <c r="E41" t="n">
-        <v>0.006854797949822172</v>
+        <v>0.4815374689702498</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>36.91183076134275</v>
+        <v>36.7823114965234</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3881692386572482</v>
+        <v>-0.5176885034765988</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1506753578397477</v>
+        <v>0.2680013866318404</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>37.88692681021995</v>
+        <v>38.36184337230253</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.01307318978004446</v>
+        <v>0.4618433723025319</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0001709082910250589</v>
+        <v>0.2132993005397751</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>38.50346492903321</v>
+        <v>38.7117112463012</v>
       </c>
       <c r="D44" t="n">
-        <v>0.003464929033214048</v>
+        <v>0.2117112463011992</v>
       </c>
       <c r="E44" t="n">
-        <v>1.200573320520964e-05</v>
+        <v>0.04482165181040703</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.9</v>
       </c>
       <c r="C45" t="n">
-        <v>38.8761424283309</v>
+        <v>38.90078471169847</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.02385757166909741</v>
+        <v>0.0007847116984720515</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0005691837259461194</v>
+        <v>6.157724497188918e-07</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.4</v>
       </c>
       <c r="C46" t="n">
-        <v>39.2557687270679</v>
+        <v>39.36844490117153</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1442312729321031</v>
+        <v>-0.03155509882846985</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02080266009161483</v>
+        <v>0.0009957242620744994</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.9</v>
       </c>
       <c r="C47" t="n">
-        <v>39.56415861988053</v>
+        <v>40.44215763099186</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3358413801194686</v>
+        <v>0.5421576309918592</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1127894326005494</v>
+        <v>0.293934896842705</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.1</v>
       </c>
       <c r="C48" t="n">
-        <v>39.79025351510796</v>
+        <v>39.17870270496023</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3097464848920453</v>
+        <v>-0.9212972950397713</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09594288490297802</v>
+        <v>0.8487887058475995</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.6</v>
       </c>
       <c r="C49" t="n">
-        <v>40.01247792801502</v>
+        <v>40.39752729878754</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.5875220719849779</v>
+        <v>-0.2024727012124572</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3451821850695215</v>
+        <v>0.04099519473626897</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.9</v>
       </c>
       <c r="C50" t="n">
-        <v>40.31626741864778</v>
+        <v>40.095211702342</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.5837325813522227</v>
+        <v>-0.8047882976579999</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3407437265321293</v>
+        <v>0.6476842040472613</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.2</v>
       </c>
       <c r="C51" t="n">
-        <v>41.48393709049734</v>
+        <v>40.92577590970986</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2839370904973393</v>
+        <v>-0.2742240902901401</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08062027136009424</v>
+        <v>0.07519885169545489</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.879335802740034</v>
+        <v>-1.745615385985953</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>11.20725098580535</v>
+        <v>14.53797600053607</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2241450197161069</v>
+        <v>0.2907595200107214</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>28.9427087348223</v>
+        <v>28.16333705034712</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4072912651776974</v>
+        <v>-1.186662949652884</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1658861746900494</v>
+        <v>1.408168956078884</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>28.89300836082998</v>
+        <v>28.62669085395203</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4769916391700164</v>
+        <v>-0.7433091460479737</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2275210238380991</v>
+        <v>0.5525084865985679</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.54</v>
       </c>
       <c r="C4" t="n">
-        <v>28.34087207123419</v>
+        <v>28.58051943513782</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.199127928765805</v>
+        <v>-0.9594805648621758</v>
       </c>
       <c r="E4" t="n">
-        <v>1.437907789546168</v>
+        <v>0.9206029543482399</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>28.11794112972044</v>
+        <v>27.89422751256823</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.432058870279565</v>
+        <v>-1.655772487431772</v>
       </c>
       <c r="E5" t="n">
-        <v>2.050792607946385</v>
+        <v>2.741582530135998</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>28.95533524248057</v>
+        <v>28.82927487106263</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7946647575194277</v>
+        <v>-0.9207251289373701</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6314920768434108</v>
+        <v>0.8477347630567369</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>29.87504235166918</v>
+        <v>29.8621840925713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03504235166918335</v>
+        <v>0.0221840925712975</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001227966410506717</v>
+        <v>0.0004921339632118968</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>29.87150022226293</v>
+        <v>30.40497163344399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.06150022226293217</v>
+        <v>0.5949716334439934</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003782277338390058</v>
+        <v>0.3539912446030136</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>30.37454661334539</v>
+        <v>31.39569694209386</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4545466133453928</v>
+        <v>1.475696942093855</v>
       </c>
       <c r="E9" t="n">
-        <v>0.206612623703766</v>
+        <v>2.177681464905153</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>29.79250161637757</v>
+        <v>30.43649775104412</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1874983836224295</v>
+        <v>0.4564977510441217</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03515564386102375</v>
+        <v>0.2083901967083409</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.04</v>
       </c>
       <c r="C11" t="n">
-        <v>29.88042269822524</v>
+        <v>29.76855222239425</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1595773017747568</v>
+        <v>-0.2714477776057507</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0254649152417118</v>
+        <v>0.07368389596710108</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.21</v>
       </c>
       <c r="C12" t="n">
-        <v>29.74073590070473</v>
+        <v>29.14361737940645</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4692640992952732</v>
+        <v>-1.066382620593551</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2202087948874041</v>
+        <v>1.137171893503969</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>29.51018045830837</v>
+        <v>29.09232317720142</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7098195416916333</v>
+        <v>-1.127676822798577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5038437817673204</v>
+        <v>1.271655016677093</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>30.18489927416362</v>
+        <v>29.69251808561865</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1951007258363759</v>
+        <v>-0.6874819143813475</v>
       </c>
       <c r="E14" t="n">
-        <v>0.03806429322188073</v>
+        <v>0.4726313826014424</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>30.34010875336671</v>
+        <v>29.81987043648315</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09989124663329463</v>
+        <v>-0.6201295635168513</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009978261153953696</v>
+        <v>0.3845606755476005</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>30.37038251337001</v>
+        <v>30.11565670334041</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1096174866299897</v>
+        <v>-0.3643432966595874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01201599337507597</v>
+        <v>0.1327460378207761</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>31.17885640097398</v>
+        <v>30.88568013691021</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4888564009739795</v>
+        <v>0.1956801369102088</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2389805807732323</v>
+        <v>0.03829071598119806</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>30.69160758968766</v>
+        <v>30.64394820996925</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05839241031233655</v>
+        <v>-0.1060517900307474</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003409673582084268</v>
+        <v>0.01124698216872573</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>31.64098400633451</v>
+        <v>31.45237837471008</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7009840063345081</v>
+        <v>0.5123783747100781</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4913785771367777</v>
+        <v>0.2625315988705412</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>31.06001523706478</v>
+        <v>31.1616007914201</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1100152370647827</v>
+        <v>0.2116007914200999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01210335238642033</v>
+        <v>0.04477489492961263</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>31.60349429203311</v>
+        <v>31.36500126183021</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5834942920331088</v>
+        <v>0.345001261830209</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3404655888352188</v>
+        <v>0.1190258706644364</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>31.80707194905486</v>
+        <v>31.47278321369649</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6870719490548609</v>
+        <v>0.3527832136964868</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4720678631780454</v>
+        <v>0.1244559958660211</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.37996397760462</v>
+        <v>32.12299543799092</v>
       </c>
       <c r="D23" t="n">
-        <v>1.099963977604624</v>
+        <v>0.8429954379909148</v>
       </c>
       <c r="E23" t="n">
-        <v>1.209920752027785</v>
+        <v>0.7106413084734943</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>31.77483967964639</v>
+        <v>32.20222283637052</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3948396796463882</v>
+        <v>0.8222228363705248</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1558983726232625</v>
+        <v>0.6760503926491909</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>32.22661443166132</v>
+        <v>32.60633166025035</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6466144316613267</v>
+        <v>1.026331660250356</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4181102232327005</v>
+        <v>1.053356676832253</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.65</v>
       </c>
       <c r="C26" t="n">
-        <v>31.71339970430864</v>
+        <v>31.58683095310719</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06339970430864383</v>
+        <v>-0.06316904689280989</v>
       </c>
       <c r="E26" t="n">
-        <v>0.004019522506423472</v>
+        <v>0.003990328485346015</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>32.73902469433484</v>
+        <v>32.47089125288672</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8590246943348454</v>
+        <v>0.5908912528867241</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7379234254770746</v>
+        <v>0.3491524727380425</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>32.74689348988056</v>
+        <v>32.60781070235583</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4668934898805617</v>
+        <v>0.3278107023558263</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2179895308928501</v>
+        <v>0.1074598565790202</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>32.23632170441146</v>
+        <v>32.35645507750934</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2136782955885437</v>
+        <v>-0.09354492249066482</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04565841400562504</v>
+        <v>0.008750652523784489</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.85</v>
       </c>
       <c r="C30" t="n">
-        <v>33.77646451688584</v>
+        <v>33.73101583907055</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9264645168858365</v>
+        <v>0.8810158390705496</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8583365010485065</v>
+        <v>0.7761889086931846</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.9</v>
       </c>
       <c r="C31" t="n">
-        <v>32.54831745890368</v>
+        <v>32.96856180153997</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3516825410963236</v>
+        <v>0.06856180153997116</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1236806097119673</v>
+        <v>0.004700720630406391</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.1</v>
       </c>
       <c r="C32" t="n">
-        <v>32.87716289024391</v>
+        <v>32.81693581255462</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2228371097560924</v>
+        <v>-0.2830641874453832</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04965637748444877</v>
+        <v>0.08012533421411504</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.4</v>
       </c>
       <c r="C33" t="n">
-        <v>33.54154534612043</v>
+        <v>33.01364589485435</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1415453461204308</v>
+        <v>-0.3863541051456494</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02003508500835255</v>
+        <v>0.1492694945628955</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>33.84191268828056</v>
+        <v>33.54196172950251</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1419126882805557</v>
+        <v>-0.1580382704974923</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02013921109501417</v>
+        <v>0.02497609494183855</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.1</v>
       </c>
       <c r="C35" t="n">
-        <v>34.52528172742192</v>
+        <v>34.32681694448669</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4252817274219183</v>
+        <v>0.2268169444866928</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1808645476789708</v>
+        <v>0.05144592630627946</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.43357021161053</v>
+        <v>34.43449059810641</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03357021161053098</v>
+        <v>0.03449059810640875</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001126959107575829</v>
+        <v>0.001189601357737807</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.9</v>
       </c>
       <c r="C37" t="n">
-        <v>35.11404979800094</v>
+        <v>34.98464496631649</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2140497980009428</v>
+        <v>0.08464496631648899</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04581731602424442</v>
+        <v>0.007164770322719556</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>35.12644181550765</v>
+        <v>34.93604754017249</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1735581844923431</v>
+        <v>-0.3639524598275088</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03012244340427819</v>
+        <v>0.1324613930144944</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>35.48220943241199</v>
+        <v>35.4021082535051</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2177905675880112</v>
+        <v>-0.2978917464949049</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04743273133030807</v>
+        <v>0.08873949262978469</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>35.72761366455542</v>
+        <v>35.76046240269898</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.5723863354445768</v>
+        <v>-0.5395375973010132</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3276261170036717</v>
+        <v>0.2911008189013504</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>36.10607099140456</v>
+        <v>36.26042012913071</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.6939290085954397</v>
+        <v>-0.5395798708692894</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4815374689702498</v>
+        <v>0.291146437047319</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>36.7823114965234</v>
+        <v>37.10107743410627</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.5176885034765988</v>
+        <v>-0.1989225658937244</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2680013866318404</v>
+        <v>0.03957018722174311</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>38.36184337230253</v>
+        <v>38.43228959578458</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4618433723025319</v>
+        <v>0.532289595784583</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2132993005397751</v>
+        <v>0.2833322137805148</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>38.7117112463012</v>
+        <v>38.62643180919265</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2117112463011992</v>
+        <v>0.1264318091926455</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04482165181040703</v>
+        <v>0.01598500237572552</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.9</v>
       </c>
       <c r="C45" t="n">
-        <v>38.90078471169847</v>
+        <v>39.06452977836769</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0007847116984720515</v>
+        <v>0.1645297783676867</v>
       </c>
       <c r="E45" t="n">
-        <v>6.157724497188918e-07</v>
+        <v>0.0270700479697201</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.4</v>
       </c>
       <c r="C46" t="n">
-        <v>39.36844490117153</v>
+        <v>39.32045916278113</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.03155509882846985</v>
+        <v>-0.07954083721887173</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0009957242620744994</v>
+        <v>0.00632674478547905</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.9</v>
       </c>
       <c r="C47" t="n">
-        <v>40.44215763099186</v>
+        <v>39.62924975830602</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5421576309918592</v>
+        <v>-0.2707502416939818</v>
       </c>
       <c r="E47" t="n">
-        <v>0.293934896842705</v>
+        <v>0.07330569337734955</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.1</v>
       </c>
       <c r="C48" t="n">
-        <v>39.17870270496023</v>
+        <v>38.78396621037763</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.9212972950397713</v>
+        <v>-1.316033789622374</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8487887058475995</v>
+        <v>1.731944935427826</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.6</v>
       </c>
       <c r="C49" t="n">
-        <v>40.39752729878754</v>
+        <v>40.80501675029668</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.2024727012124572</v>
+        <v>0.2050167502966787</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04099519473626897</v>
+        <v>0.04203186790221069</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.9</v>
       </c>
       <c r="C50" t="n">
-        <v>40.095211702342</v>
+        <v>40.5619394393988</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.8047882976579999</v>
+        <v>-0.3380605606011997</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6476842040472613</v>
+        <v>0.1142849426339974</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.2</v>
       </c>
       <c r="C51" t="n">
-        <v>40.92577590970986</v>
+        <v>41.04643610446035</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.2742240902901401</v>
+        <v>-0.1535638955396479</v>
       </c>
       <c r="E51" t="n">
-        <v>0.07519885169545489</v>
+        <v>0.02358187001331189</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1.745615385985953</v>
+        <v>-4.690623989316702</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>14.53797600053607</v>
+        <v>20.4492718773878</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.2907595200107214</v>
+        <v>0.408985437547756</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>28.16333705034712</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.186662949652884</v>
+        <v>-29.35</v>
       </c>
       <c r="E2" t="n">
-        <v>1.408168956078884</v>
+        <v>861.4225000000001</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>28.62669085395203</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7433091460479737</v>
+        <v>-29.37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5525084865985679</v>
+        <v>862.5969</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.54</v>
       </c>
       <c r="C4" t="n">
-        <v>28.58051943513782</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.9594805648621758</v>
+        <v>-29.54</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9206029543482399</v>
+        <v>872.6116</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>27.89422751256823</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.655772487431772</v>
+        <v>-29.55</v>
       </c>
       <c r="E5" t="n">
-        <v>2.741582530135998</v>
+        <v>873.2025</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>28.82927487106263</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9207251289373701</v>
+        <v>-29.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8477347630567369</v>
+        <v>885.0625</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>29.8621840925713</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0221840925712975</v>
+        <v>-29.84</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0004921339632118968</v>
+        <v>890.4256</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>30.40497163344399</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5949716334439934</v>
+        <v>-29.81</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3539912446030136</v>
+        <v>888.6360999999999</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>31.39569694209386</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.475696942093855</v>
+        <v>-29.92</v>
       </c>
       <c r="E9" t="n">
-        <v>2.177681464905153</v>
+        <v>895.2064000000001</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>30.43649775104412</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4564977510441217</v>
+        <v>-29.98</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2083901967083409</v>
+        <v>898.8004000000001</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.04</v>
       </c>
       <c r="C11" t="n">
-        <v>29.76855222239425</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2714477776057507</v>
+        <v>-30.04</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07368389596710108</v>
+        <v>902.4015999999999</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.21</v>
       </c>
       <c r="C12" t="n">
-        <v>29.14361737940645</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.066382620593551</v>
+        <v>-30.21</v>
       </c>
       <c r="E12" t="n">
-        <v>1.137171893503969</v>
+        <v>912.6441000000001</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>29.09232317720142</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.127676822798577</v>
+        <v>-30.22</v>
       </c>
       <c r="E13" t="n">
-        <v>1.271655016677093</v>
+        <v>913.2483999999999</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>29.69251808561865</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6874819143813475</v>
+        <v>-30.38</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4726313826014424</v>
+        <v>922.9444</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>29.81987043648315</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6201295635168513</v>
+        <v>-30.44</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3845606755476005</v>
+        <v>926.5936</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>30.11565670334041</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3643432966595874</v>
+        <v>-30.48</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1327460378207761</v>
+        <v>929.0304</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>30.88568013691021</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1956801369102088</v>
+        <v>-30.69</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03829071598119806</v>
+        <v>941.8761000000001</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>30.64394820996925</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1060517900307474</v>
+        <v>-30.75</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01124698216872573</v>
+        <v>945.5625</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>31.45237837471008</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5123783747100781</v>
+        <v>-30.94</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2625315988705412</v>
+        <v>957.2836000000001</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>31.1616007914201</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2116007914200999</v>
+        <v>-30.95</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04477489492961263</v>
+        <v>957.9024999999999</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>31.36500126183021</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.345001261830209</v>
+        <v>-31.02</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1190258706644364</v>
+        <v>962.2404</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>31.47278321369649</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3527832136964868</v>
+        <v>-31.12</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1244559958660211</v>
+        <v>968.4544000000001</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>32.12299543799092</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8429954379909148</v>
+        <v>-31.28</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7106413084734943</v>
+        <v>978.4384000000001</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>32.20222283637052</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8222228363705248</v>
+        <v>-31.38</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6760503926491909</v>
+        <v>984.7044</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>32.60633166025035</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.026331660250356</v>
+        <v>-31.58</v>
       </c>
       <c r="E25" t="n">
-        <v>1.053356676832253</v>
+        <v>997.2963999999999</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.65</v>
       </c>
       <c r="C26" t="n">
-        <v>31.58683095310719</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.06316904689280989</v>
+        <v>-31.65</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003990328485346015</v>
+        <v>1001.7225</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>32.47089125288672</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5908912528867241</v>
+        <v>-31.88</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3491524727380425</v>
+        <v>1016.3344</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>32.60781070235583</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3278107023558263</v>
+        <v>-32.28</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1074598565790202</v>
+        <v>1041.9984</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>32.35645507750934</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.09354492249066482</v>
+        <v>-32.45</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008750652523784489</v>
+        <v>1053.0025</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.85</v>
       </c>
       <c r="C30" t="n">
-        <v>33.73101583907055</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8810158390705496</v>
+        <v>-32.85</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7761889086931846</v>
+        <v>1079.1225</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.9</v>
       </c>
       <c r="C31" t="n">
-        <v>32.96856180153997</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06856180153997116</v>
+        <v>-32.9</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004700720630406391</v>
+        <v>1082.41</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.1</v>
       </c>
       <c r="C32" t="n">
-        <v>32.81693581255462</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2830641874453832</v>
+        <v>-33.1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08012533421411504</v>
+        <v>1095.61</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.4</v>
       </c>
       <c r="C33" t="n">
-        <v>33.01364589485435</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3863541051456494</v>
+        <v>-33.4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1492694945628955</v>
+        <v>1115.56</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>33.54196172950251</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1580382704974923</v>
+        <v>-33.7</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02497609494183855</v>
+        <v>1135.69</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.1</v>
       </c>
       <c r="C35" t="n">
-        <v>34.32681694448669</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2268169444866928</v>
+        <v>-34.1</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05144592630627946</v>
+        <v>1162.81</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.43449059810641</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03449059810640875</v>
+        <v>-34.4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001189601357737807</v>
+        <v>1183.36</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.9</v>
       </c>
       <c r="C37" t="n">
-        <v>34.98464496631649</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.08464496631648899</v>
+        <v>-34.9</v>
       </c>
       <c r="E37" t="n">
-        <v>0.007164770322719556</v>
+        <v>1218.01</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>34.93604754017249</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3639524598275088</v>
+        <v>-35.3</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1324613930144944</v>
+        <v>1246.09</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>35.4021082535051</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2978917464949049</v>
+        <v>-35.7</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08873949262978469</v>
+        <v>1274.49</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>35.76046240269898</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.5395375973010132</v>
+        <v>-36.3</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2911008189013504</v>
+        <v>1317.69</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>36.26042012913071</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.5395798708692894</v>
+        <v>-36.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.291146437047319</v>
+        <v>1354.24</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>37.10107743410627</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1989225658937244</v>
+        <v>-37.3</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03957018722174311</v>
+        <v>1391.29</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>38.43228959578458</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.532289595784583</v>
+        <v>-37.9</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2833322137805148</v>
+        <v>1436.41</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>38.62643180919265</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1264318091926455</v>
+        <v>-38.5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01598500237572552</v>
+        <v>1482.25</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.9</v>
       </c>
       <c r="C45" t="n">
-        <v>39.06452977836769</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1645297783676867</v>
+        <v>-38.9</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0270700479697201</v>
+        <v>1513.21</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.4</v>
       </c>
       <c r="C46" t="n">
-        <v>39.32045916278113</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.07954083721887173</v>
+        <v>-39.4</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00632674478547905</v>
+        <v>1552.36</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.9</v>
       </c>
       <c r="C47" t="n">
-        <v>39.62924975830602</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2707502416939818</v>
+        <v>-39.9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07330569337734955</v>
+        <v>1592.01</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.1</v>
       </c>
       <c r="C48" t="n">
-        <v>38.78396621037763</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.316033789622374</v>
+        <v>-40.1</v>
       </c>
       <c r="E48" t="n">
-        <v>1.731944935427826</v>
+        <v>1608.01</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.6</v>
       </c>
       <c r="C49" t="n">
-        <v>40.80501675029668</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2050167502966787</v>
+        <v>-40.6</v>
       </c>
       <c r="E49" t="n">
-        <v>0.04203186790221069</v>
+        <v>1648.36</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.9</v>
       </c>
       <c r="C50" t="n">
-        <v>40.5619394393988</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.3380605606011997</v>
+        <v>-40.9</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1142849426339974</v>
+        <v>1672.81</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.2</v>
       </c>
       <c r="C51" t="n">
-        <v>41.04643610446035</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1535638955396479</v>
+        <v>-41.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02358187001331189</v>
+        <v>1697.44</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-4.690623989316702</v>
+        <v>-1665</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>20.4492718773878</v>
+        <v>56100.876</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.408985437547756</v>
+        <v>1122.01752</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,234 +462,880 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.238811850547791</v>
+        <v>29.34999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.229801177978516</v>
+        <v>29.4985179901123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009010672569274902</v>
+        <v>0.1485179901123104</v>
       </c>
       <c r="E2" t="n">
-        <v>8.119222184177488e-05</v>
+        <v>0.02205759338700032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.238484621047974</v>
+        <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.237416386604309</v>
+        <v>29.35776329040527</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001068234443664551</v>
+        <v>-0.01223670959473111</v>
       </c>
       <c r="E3" t="n">
-        <v>1.141124812420458e-06</v>
+        <v>0.0001497370617057844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.235703587532043</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.230719566345215</v>
+        <v>29.42226982116699</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004984021186828613</v>
+        <v>-0.1177301788329999</v>
       </c>
       <c r="E4" t="n">
-        <v>2.484046672179829e-05</v>
+        <v>0.01386039500805013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.23553991317749</v>
+        <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.248525500297546</v>
+        <v>29.61308860778809</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01298558712005615</v>
+        <v>0.06308860778808878</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001686254690866917</v>
+        <v>0.003980172432639296</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.232268095016479</v>
+        <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.230057597160339</v>
+        <v>29.7861385345459</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002210497856140137</v>
+        <v>0.03613853454589844</v>
       </c>
       <c r="E6" t="n">
-        <v>4.886300757789286e-06</v>
+        <v>0.001305993679125095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.230795860290527</v>
+        <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.232209444046021</v>
+        <v>29.84637260437012</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.001413583755493164</v>
+        <v>0.006372604370113777</v>
       </c>
       <c r="E7" t="n">
-        <v>1.998218976950739e-06</v>
+        <v>4.061008645799321e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.231286525726318</v>
+        <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.232167840003967</v>
+        <v>29.75481986999512</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0008813142776489258</v>
+        <v>-0.05518013000488509</v>
       </c>
       <c r="E8" t="n">
-        <v>7.767148417769931e-07</v>
+        <v>0.003044846747356019</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.229487061500549</v>
+        <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.218889594078064</v>
+        <v>29.96382713317871</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01059746742248535</v>
+        <v>0.04382713317870923</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001123063193517737</v>
+        <v>0.001920817602664316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.228505492210388</v>
+        <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.22405219078064</v>
+        <v>29.97175407409668</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004453301429748535</v>
+        <v>-0.008245925903324292</v>
       </c>
       <c r="E10" t="n">
-        <v>1.983189395105001e-05</v>
+        <v>6.799529400311454e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.227523922920227</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.229271173477173</v>
+        <v>30.02400016784668</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001747250556945801</v>
+        <v>-0.01599983215331235</v>
       </c>
       <c r="E11" t="n">
-        <v>3.052884494536556e-06</v>
+        <v>0.0002559946289341679</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.224742889404297</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.225547313690186</v>
+        <v>30.07571983337402</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0008044242858886719</v>
+        <v>-0.1342801666259845</v>
       </c>
       <c r="E12" t="n">
-        <v>6.470984317274997e-07</v>
+        <v>0.01803116314910217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>30.10621452331543</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.1137854766845692</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.01294713470433463</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37</v>
+      </c>
+      <c r="B14" t="n">
+        <v>30.38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>30.31061363220215</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.06938636779784702</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.004814468036178101</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36</v>
+      </c>
+      <c r="B15" t="n">
+        <v>30.44</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30.42912101745605</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.01087898254394304</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0001183522611914174</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" t="n">
+        <v>30.48</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30.54740715026855</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06740715026855071</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.004543723907326976</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.71349906921387</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.02349906921386946</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0005522062539182274</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30.78816795349121</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.03816795349121094</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.001456792673707241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>32</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="C19" t="n">
+        <v>30.88532066345215</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.05467933654784929</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002989829845312967</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="C20" t="n">
+        <v>31.01924705505371</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0692470550537081</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00479515463361128</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="n">
+        <v>31.02</v>
+      </c>
+      <c r="C21" t="n">
+        <v>31.05862998962402</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.03862998962402742</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001492276098352466</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29</v>
+      </c>
+      <c r="B22" t="n">
+        <v>31.12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>31.22963523864746</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1096352386474564</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01201988555328472</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n">
+        <v>31.28</v>
+      </c>
+      <c r="C23" t="n">
+        <v>31.2623348236084</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.0176651763916027</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0003120584569464374</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27</v>
+      </c>
+      <c r="B24" t="n">
+        <v>31.38</v>
+      </c>
+      <c r="C24" t="n">
+        <v>31.4388256072998</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.05882560729980923</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.003460452074191369</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>31.58</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31.54179954528809</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.03820045471191236</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001459274740196867</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31.65000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31.67667198181152</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.02667198181151775</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0007113946137539338</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32.02547073364258</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.1454707336425827</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02116173434651123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.32650375366211</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.04650375366210824</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.002162599104666045</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32.27846145629883</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.1715385437011747</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.02942547197511983</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21</v>
+      </c>
+      <c r="B30" t="n">
+        <v>32.84999999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>32.74028396606445</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.1097160339355412</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01203760810254483</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32.90000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>32.8974723815918</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.002527618408208809</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6.388854817516035e-06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>33.09999999999999</v>
+      </c>
+      <c r="C32" t="n">
+        <v>33.05193710327148</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.04806289672850994</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.002310042041935412</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>33.40000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>33.40277481079102</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.002774810791009941</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7.699574925905212e-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33.69382858276367</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.006171417236330967</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.808639070488295e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34.13248825073242</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.03248825073242756</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.00105548643565308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>15</v>
+      </c>
+      <c r="B36" t="n">
+        <v>34.40000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34.56021499633789</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1602149963378849</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.02566884505154848</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>14</v>
+      </c>
+      <c r="B37" t="n">
+        <v>34.90000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>34.9382438659668</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.03824386596679119</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.001462593284085889</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>13</v>
+      </c>
+      <c r="B38" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35.33830642700195</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03830642700195597</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.001467382349656181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="C39" t="n">
+        <v>35.74505996704102</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.04505996704101278</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.002030400629737158</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36.3379020690918</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03790206909179972</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.00143656684143956</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36.57782363891602</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.2221763610839815</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.04936233542451975</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>9</v>
+      </c>
+      <c r="B42" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>37.29956436157227</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.0004356384277315328</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.89780839716402e-07</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>8</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37.90000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>38.11954116821289</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.2195411682128849</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.04819832454027824</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C44" t="n">
+        <v>38.28351974487305</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.2164802551269531</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.04686370085983071</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B45" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>38.80599594116211</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.09400405883789631</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.008836763077998671</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="n">
+        <v>39.40000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>39.42082595825195</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.02082595825194744</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0004337205371118577</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>39.85890579223633</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.04109420776367756</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.001688733911724297</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>40.09999999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>40.00052261352539</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.09947738647460369</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.009895750419817665</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2</v>
+      </c>
+      <c r="B49" t="n">
+        <v>40.59999999999999</v>
+      </c>
+      <c r="C49" t="n">
+        <v>40.67898941040039</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.07898941040039631</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.006239326955402236</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>40.90000000000001</v>
+      </c>
+      <c r="C50" t="n">
+        <v>40.98620986938477</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.08620986938475994</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.007432141579337369</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>-1.224579334259033</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-1.238441109657288</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-0.01386177539825439</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0001921488146763295</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B51" t="n">
+        <v>41.20000000000001</v>
+      </c>
+      <c r="C51" t="n">
+        <v>41.20719146728516</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.007191467285146302</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5.171720171332953e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.0006302595138549805</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>0.0006114474963396788</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>0.02979850769040837</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>0.3956619322012649</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>5.095395681564696e-05</v>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>0.007913238644025298</v>
       </c>
     </row>
   </sheetData>

--- a/full/sliding_window_results_window_3.xlsx
+++ b/full/sliding_window_results_window_3.xlsx
@@ -468,13 +468,13 @@
         <v>29.35</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28.56809871931244</v>
       </c>
       <c r="D2" t="n">
-        <v>-29.35</v>
+        <v>-0.7819012806875634</v>
       </c>
       <c r="E2" t="n">
-        <v>861.4225000000001</v>
+        <v>0.6113696127408518</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.37</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.56090230188462</v>
       </c>
       <c r="D3" t="n">
-        <v>-29.37</v>
+        <v>-0.8090976981153766</v>
       </c>
       <c r="E3" t="n">
-        <v>862.5969</v>
+        <v>0.6546390850956011</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.54</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>29.40648462030243</v>
       </c>
       <c r="D4" t="n">
-        <v>-29.54</v>
+        <v>-0.1335153796975703</v>
       </c>
       <c r="E4" t="n">
-        <v>872.6116</v>
+        <v>0.01782635661578637</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.55</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>30.00421754041881</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.55</v>
+        <v>0.4542175404188136</v>
       </c>
       <c r="E5" t="n">
-        <v>873.2025</v>
+        <v>0.2063135740241165</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>30.08550511156546</v>
       </c>
       <c r="D6" t="n">
-        <v>-29.75</v>
+        <v>0.3355051115654604</v>
       </c>
       <c r="E6" t="n">
-        <v>885.0625</v>
+        <v>0.112563679886552</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.84</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.13760866815252</v>
       </c>
       <c r="D7" t="n">
-        <v>-29.84</v>
+        <v>0.2976086681525238</v>
       </c>
       <c r="E7" t="n">
-        <v>890.4256</v>
+        <v>0.08857091935951907</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.81</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30.24145396543597</v>
       </c>
       <c r="D8" t="n">
-        <v>-29.81</v>
+        <v>0.4314539654359741</v>
       </c>
       <c r="E8" t="n">
-        <v>888.6360999999999</v>
+        <v>0.1861525242904268</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.92</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>30.23881880015279</v>
       </c>
       <c r="D9" t="n">
-        <v>-29.92</v>
+        <v>0.3188188001527905</v>
       </c>
       <c r="E9" t="n">
-        <v>895.2064000000001</v>
+        <v>0.101645427330865</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.98</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.3324748470579</v>
       </c>
       <c r="D10" t="n">
-        <v>-29.98</v>
+        <v>0.3524748470578949</v>
       </c>
       <c r="E10" t="n">
-        <v>898.8004000000001</v>
+        <v>0.1242385178084864</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.04</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>30.15780981532706</v>
       </c>
       <c r="D11" t="n">
-        <v>-30.04</v>
+        <v>0.1178098153270639</v>
       </c>
       <c r="E11" t="n">
-        <v>902.4015999999999</v>
+        <v>0.0138791525873969</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.21</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>30.00645248447812</v>
       </c>
       <c r="D12" t="n">
-        <v>-30.21</v>
+        <v>-0.2035475155218762</v>
       </c>
       <c r="E12" t="n">
-        <v>912.6441000000001</v>
+        <v>0.04143159107512844</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.22</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>30.11347628287443</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.22</v>
+        <v>-0.1065237171255689</v>
       </c>
       <c r="E13" t="n">
-        <v>913.2483999999999</v>
+        <v>0.01134730231024821</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.38</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>29.99755940397955</v>
       </c>
       <c r="D14" t="n">
-        <v>-30.38</v>
+        <v>-0.382440596020448</v>
       </c>
       <c r="E14" t="n">
-        <v>922.9444</v>
+        <v>0.1462608094844755</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.44</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>30.02760648670544</v>
       </c>
       <c r="D15" t="n">
-        <v>-30.44</v>
+        <v>-0.412393513294564</v>
       </c>
       <c r="E15" t="n">
-        <v>926.5936</v>
+        <v>0.1700684098074337</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.48</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>30.198318076291</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.48</v>
+        <v>-0.2816819237090051</v>
       </c>
       <c r="E16" t="n">
-        <v>929.0304</v>
+        <v>0.07934470614440579</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.69</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>30.46317541374856</v>
       </c>
       <c r="D17" t="n">
-        <v>-30.69</v>
+        <v>-0.2268245862514426</v>
       </c>
       <c r="E17" t="n">
-        <v>941.8761000000001</v>
+        <v>0.05144939292813814</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.75</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>30.7874844356307</v>
       </c>
       <c r="D18" t="n">
-        <v>-30.75</v>
+        <v>0.03748443563070225</v>
       </c>
       <c r="E18" t="n">
-        <v>945.5625</v>
+        <v>0.001405082914552261</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.94</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.48652885860169</v>
       </c>
       <c r="D19" t="n">
-        <v>-30.94</v>
+        <v>0.5465288586016932</v>
       </c>
       <c r="E19" t="n">
-        <v>957.2836000000001</v>
+        <v>0.2986937932844695</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.95</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>31.39704363937706</v>
       </c>
       <c r="D20" t="n">
-        <v>-30.95</v>
+        <v>0.4470436393770605</v>
       </c>
       <c r="E20" t="n">
-        <v>957.9024999999999</v>
+        <v>0.1998480155074873</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.02</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>31.22176637042529</v>
       </c>
       <c r="D21" t="n">
-        <v>-31.02</v>
+        <v>0.2017663704252861</v>
       </c>
       <c r="E21" t="n">
-        <v>962.2404</v>
+        <v>0.04070966823459377</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.12</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.20880547241887</v>
       </c>
       <c r="D22" t="n">
-        <v>-31.12</v>
+        <v>0.08880547241886561</v>
       </c>
       <c r="E22" t="n">
-        <v>968.4544000000001</v>
+        <v>0.0078864119315379</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.28</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>31.71783149681082</v>
       </c>
       <c r="D23" t="n">
-        <v>-31.28</v>
+        <v>0.4378314968108157</v>
       </c>
       <c r="E23" t="n">
-        <v>978.4384000000001</v>
+        <v>0.1916964195995993</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.38</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>31.67425022380877</v>
       </c>
       <c r="D24" t="n">
-        <v>-31.38</v>
+        <v>0.2942502238087705</v>
       </c>
       <c r="E24" t="n">
-        <v>984.7044</v>
+        <v>0.08658319421151155</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.58</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>31.80670018641877</v>
       </c>
       <c r="D25" t="n">
-        <v>-31.58</v>
+        <v>0.2267001864187677</v>
       </c>
       <c r="E25" t="n">
-        <v>997.2963999999999</v>
+        <v>0.05139297452230401</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.65</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>31.57236529702934</v>
       </c>
       <c r="D26" t="n">
-        <v>-31.65</v>
+        <v>-0.07763470297066277</v>
       </c>
       <c r="E26" t="n">
-        <v>1001.7225</v>
+        <v>0.006027147105343035</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.88</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>31.80795770925392</v>
       </c>
       <c r="D27" t="n">
-        <v>-31.88</v>
+        <v>-0.07204229074607937</v>
       </c>
       <c r="E27" t="n">
-        <v>1016.3344</v>
+        <v>0.005190091655942634</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>32.28</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.40764967107331</v>
       </c>
       <c r="D28" t="n">
-        <v>-32.28</v>
+        <v>0.127649671073307</v>
       </c>
       <c r="E28" t="n">
-        <v>1041.9984</v>
+        <v>0.01629443852512348</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.45</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>32.0779747708137</v>
       </c>
       <c r="D29" t="n">
-        <v>-32.45</v>
+        <v>-0.3720252291863062</v>
       </c>
       <c r="E29" t="n">
-        <v>1053.0025</v>
+        <v>0.1384027711511236</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.85</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>33.49615976197383</v>
       </c>
       <c r="D30" t="n">
-        <v>-32.85</v>
+        <v>0.6461597619738271</v>
       </c>
       <c r="E30" t="n">
-        <v>1079.1225</v>
+        <v>0.4175224379940728</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.9</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>32.90623986695228</v>
       </c>
       <c r="D31" t="n">
-        <v>-32.9</v>
+        <v>0.006239866952284956</v>
       </c>
       <c r="E31" t="n">
-        <v>1082.41</v>
+        <v>3.893593958221794e-05</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>33.1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>33.22022286182911</v>
       </c>
       <c r="D32" t="n">
-        <v>-33.1</v>
+        <v>0.120222861829113</v>
       </c>
       <c r="E32" t="n">
-        <v>1095.61</v>
+        <v>0.014453536506382</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.4</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>33.03518120681197</v>
       </c>
       <c r="D33" t="n">
-        <v>-33.4</v>
+        <v>-0.3648187931880287</v>
       </c>
       <c r="E33" t="n">
-        <v>1115.56</v>
+        <v>0.1330927518631696</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.7</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>33.75397210975283</v>
       </c>
       <c r="D34" t="n">
-        <v>-33.7</v>
+        <v>0.05397210975282718</v>
       </c>
       <c r="E34" t="n">
-        <v>1135.69</v>
+        <v>0.002912988631171223</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>34.1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>34.66480062472593</v>
       </c>
       <c r="D35" t="n">
-        <v>-34.1</v>
+        <v>0.5648006247259261</v>
       </c>
       <c r="E35" t="n">
-        <v>1162.81</v>
+        <v>0.3189997456907964</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>34.41753274239829</v>
       </c>
       <c r="D36" t="n">
-        <v>-34.4</v>
+        <v>0.01753274239828784</v>
       </c>
       <c r="E36" t="n">
-        <v>1183.36</v>
+        <v>0.00030739705600472</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.9</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>34.92800287556167</v>
       </c>
       <c r="D37" t="n">
-        <v>-34.9</v>
+        <v>0.02800287556166836</v>
       </c>
       <c r="E37" t="n">
-        <v>1218.01</v>
+        <v>0.0007841610397222831</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>35.3</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>34.47907648458726</v>
       </c>
       <c r="D38" t="n">
-        <v>-35.3</v>
+        <v>-0.820923515412737</v>
       </c>
       <c r="E38" t="n">
-        <v>1246.09</v>
+        <v>0.6739154181576062</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.7</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>34.76454817958464</v>
       </c>
       <c r="D39" t="n">
-        <v>-35.7</v>
+        <v>-0.9354518204153663</v>
       </c>
       <c r="E39" t="n">
-        <v>1274.49</v>
+        <v>0.8750701083184228</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>36.3</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>35.6386607338206</v>
       </c>
       <c r="D40" t="n">
-        <v>-36.3</v>
+        <v>-0.6613392661793966</v>
       </c>
       <c r="E40" t="n">
-        <v>1317.69</v>
+        <v>0.4373696249907029</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.8</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>35.81547822064613</v>
       </c>
       <c r="D41" t="n">
-        <v>-36.8</v>
+        <v>-0.9845217793538694</v>
       </c>
       <c r="E41" t="n">
-        <v>1354.24</v>
+        <v>0.9692831340221092</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>37.3</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>36.8833122197145</v>
       </c>
       <c r="D42" t="n">
-        <v>-37.3</v>
+        <v>-0.4166877802854998</v>
       </c>
       <c r="E42" t="n">
-        <v>1391.29</v>
+        <v>0.1736287062392569</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.9</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>37.77573340676048</v>
       </c>
       <c r="D43" t="n">
-        <v>-37.9</v>
+        <v>-0.1242665932395184</v>
       </c>
       <c r="E43" t="n">
-        <v>1436.41</v>
+        <v>0.01544218619535592</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>38.5</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>38.52955548243027</v>
       </c>
       <c r="D44" t="n">
-        <v>-38.5</v>
+        <v>0.0295554824302684</v>
       </c>
       <c r="E44" t="n">
-        <v>1482.25</v>
+        <v>0.0008735265416859039</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.9</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>39.2027103573383</v>
       </c>
       <c r="D45" t="n">
-        <v>-38.9</v>
+        <v>0.3027103573383059</v>
       </c>
       <c r="E45" t="n">
-        <v>1513.21</v>
+        <v>0.09163356043988483</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>39.4</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>40.11827417529376</v>
       </c>
       <c r="D46" t="n">
-        <v>-39.4</v>
+        <v>0.7182741752937645</v>
       </c>
       <c r="E46" t="n">
-        <v>1552.36</v>
+        <v>0.5159177908939375</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.9</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>40.63573555162989</v>
       </c>
       <c r="D47" t="n">
-        <v>-39.9</v>
+        <v>0.7357355516298938</v>
       </c>
       <c r="E47" t="n">
-        <v>1592.01</v>
+        <v>0.5413068019321441</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>40.1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>39.12693659218619</v>
       </c>
       <c r="D48" t="n">
-        <v>-40.1</v>
+        <v>-0.973063407813811</v>
       </c>
       <c r="E48" t="n">
-        <v>1608.01</v>
+        <v>0.9468523956262269</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.6</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>40.86997228496865</v>
       </c>
       <c r="D49" t="n">
-        <v>-40.6</v>
+        <v>0.2699722849686523</v>
       </c>
       <c r="E49" t="n">
-        <v>1648.36</v>
+        <v>0.07288503465119522</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.9</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>40.65588761654695</v>
       </c>
       <c r="D50" t="n">
-        <v>-40.9</v>
+        <v>-0.2441123834530501</v>
       </c>
       <c r="E50" t="n">
-        <v>1672.81</v>
+        <v>0.05959085575512896</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>41.2</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>40.29513997690747</v>
       </c>
       <c r="D51" t="n">
-        <v>-41.2</v>
+        <v>-0.9048600230925317</v>
       </c>
       <c r="E51" t="n">
-        <v>1697.44</v>
+        <v>0.818771661391017</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>-1665</v>
+        <v>-2.080545998229663</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>56100.876</v>
+        <v>10.74188383000859</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>1122.01752</v>
+        <v>0.2148376766001719</v>
       </c>
     </row>
   </sheetData>
